--- a/dataset/score/maaruthi.xlsx
+++ b/dataset/score/maaruthi.xlsx
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="G2" t="n">
         <v>0.75</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J3" t="n">
         <v>0.75</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.8714285714285716</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -625,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.95</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J4" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J5" t="n">
         <v>0.25</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J7" t="n">
         <v>0.75</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.4974999999999999</v>
+        <v>0.2571428571428572</v>
       </c>
       <c r="G9" t="n">
         <v>-0.25</v>
@@ -866,7 +866,7 @@
         <v>-0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9875</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -914,10 +914,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9925</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8921052631578947</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G13" t="n">
         <v>0.75</v>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J13" t="n">
         <v>0.75</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.6210714285714285</v>
       </c>
       <c r="G14" t="n">
         <v>0.75</v>
@@ -1106,7 +1106,7 @@
         <v>0.9625</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6375</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J14" t="n">
         <v>0.25</v>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J15" t="n">
         <v>0.75</v>
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1298,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7525000000000001</v>
+        <v>0.7189285714285714</v>
       </c>
       <c r="G19" t="n">
         <v>0.75</v>
@@ -1346,7 +1346,7 @@
         <v>0.9875</v>
       </c>
       <c r="I19" t="n">
-        <v>0.775</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="J19" t="n">
         <v>0.5</v>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.7928571428571429</v>
       </c>
       <c r="G20" t="n">
         <v>0.75</v>
@@ -1394,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1538,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8975</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1586,10 +1586,10 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G26" t="n">
         <v>0.75</v>
@@ -1682,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8894736842105264</v>
+        <v>0.8714285714285716</v>
       </c>
       <c r="G29" t="n">
         <v>0.75</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J29" t="n">
         <v>0.75</v>
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G30" t="n">
         <v>0.75</v>
@@ -1874,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J30" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8473684210526315</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G31" t="n">
         <v>0.75</v>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
         <v>0.5</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.4868421052631579</v>
+        <v>0.4161654135338346</v>
       </c>
       <c r="G32" t="n">
         <v>0.75</v>
@@ -1970,7 +1970,7 @@
         <v>0.9736842105263158</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4605263157894737</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G33" t="n">
         <v>0.75</v>
@@ -2018,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J33" t="n">
         <v>0.5</v>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J34" t="n">
         <v>0.5</v>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J35" t="n">
         <v>0.75</v>
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.3975</v>
+        <v>0.1571428571428572</v>
       </c>
       <c r="G36" t="n">
         <v>-0.25</v>
@@ -2163,7 +2163,7 @@
         <v>-0.25</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9875</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="J36" t="n">
         <v>0.5</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.4</v>
+        <v>0.1571428571428572</v>
       </c>
       <c r="G37" t="n">
         <v>-0.25</v>
@@ -2212,7 +2212,7 @@
         <v>-0.25</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="J37" t="n">
         <v>0.5</v>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.945</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2260,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J38" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.945</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2308,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J39" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
         <v>0.75</v>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3733082706766917</v>
       </c>
       <c r="G41" t="n">
         <v>0.75</v>
@@ -2404,7 +2404,7 @@
         <v>-0.02631578947368429</v>
       </c>
       <c r="I41" t="n">
-        <v>0.631578947368421</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="J41" t="n">
         <v>0.25</v>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8447368421052632</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G42" t="n">
         <v>0.75</v>
@@ -2452,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J42" t="n">
         <v>0.5</v>
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.6473684210526316</v>
+        <v>0.4071428571428571</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>-0.25</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9868421052631579</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="J43" t="n">
         <v>0.5</v>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J44" t="n">
         <v>0.25</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J45" t="n">
         <v>0.75</v>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8425</v>
+        <v>0.8285714285714285</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J46" t="n">
         <v>0.25</v>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2694,10 +2694,10 @@
         <v>-0.25</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="J47" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J48" t="n">
         <v>0.5</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.945</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J49" t="n">
         <v>0.75</v>
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9475</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2838,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J51" t="n">
         <v>0.5</v>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J52" t="n">
         <v>0.5</v>
@@ -2973,7 +2973,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8894736842105264</v>
+        <v>0.8214285714285715</v>
       </c>
       <c r="G53" t="n">
         <v>0.75</v>
@@ -2982,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J53" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.6894736842105262</v>
+        <v>0.4785714285714285</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>-0.25</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9473684210526315</v>
+        <v>-0.1071428571428572</v>
       </c>
       <c r="J54" t="n">
         <v>0.75</v>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.8975</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3079,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G58" t="n">
         <v>0.75</v>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J58" t="n">
         <v>0.25</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.845</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J59" t="n">
         <v>0.25</v>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.515</v>
+        <v>0.5403571428571429</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3319,10 +3319,10 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8375</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K60" t="n">
         <v>0.75</v>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G62" t="n">
         <v>0.75</v>
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J62" t="n">
         <v>0.75</v>
@@ -3455,7 +3455,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.5921052631578948</v>
+        <v>0.368796992481203</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3464,7 +3464,7 @@
         <v>-0.263157894736842</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9736842105263158</v>
+        <v>-0.1428571428571428</v>
       </c>
       <c r="J63" t="n">
         <v>0.25</v>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J64" t="n">
         <v>0.5</v>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.6575</v>
+        <v>0.6260714285714286</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3560,7 +3560,7 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="J65" t="n">
         <v>0.75</v>
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3608,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J66" t="n">
         <v>0.5</v>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.35</v>
+        <v>0.1</v>
       </c>
       <c r="G67" t="n">
         <v>-0.25</v>
@@ -3657,7 +3657,7 @@
         <v>-0.25</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="J67" t="n">
         <v>0.25</v>
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.945</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3801,10 +3801,10 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J70" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J71" t="n">
         <v>0.75</v>
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J72" t="n">
         <v>0.75</v>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.795</v>
+        <v>0.7928571428571429</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.975</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J73" t="n">
         <v>0.25</v>
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.52</v>
+        <v>0.4689285714285715</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>-0.01249999999999996</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6125</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="J74" t="n">
         <v>0.5</v>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.48</v>
+        <v>0.4046428571428572</v>
       </c>
       <c r="G75" t="n">
         <v>0.75</v>
@@ -4041,7 +4041,7 @@
         <v>0.9875</v>
       </c>
       <c r="I75" t="n">
-        <v>0.4125</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.6447368421052632</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>-0.25</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9736842105263158</v>
+        <v>-0.1785714285714286</v>
       </c>
       <c r="J76" t="n">
         <v>0.5</v>
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J77" t="n">
         <v>0.5</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.7473684210526316</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="G78" t="n">
         <v>0.75</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J78" t="n">
         <v>0.25</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4282,7 +4282,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J80" t="n">
         <v>0.75</v>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4330,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J81" t="n">
         <v>0.25</v>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.8474999999999999</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J82" t="n">
         <v>0.25</v>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.4475</v>
+        <v>0.1571428571428572</v>
       </c>
       <c r="G84" t="n">
         <v>-0.25</v>
@@ -4475,10 +4475,10 @@
         <v>-0.25</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9875</v>
+        <v>-0.2142857142857142</v>
       </c>
       <c r="J84" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.8425</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9625</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J85" t="n">
         <v>0.25</v>
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J86" t="n">
         <v>0.75</v>
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9447368421052632</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G87" t="n">
         <v>0.75</v>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J87" t="n">
         <v>1</v>
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.8973684210526315</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G89" t="n">
         <v>0.75</v>
@@ -4715,10 +4715,10 @@
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0.95</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J91" t="n">
         <v>0.75</v>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J93" t="n">
         <v>0.75</v>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.8975</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J95" t="n">
         <v>0.5</v>
@@ -5090,7 +5090,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5099,7 +5099,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J97" t="n">
         <v>0.75</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5147,7 +5147,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J98" t="n">
         <v>0.75</v>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J99" t="n">
         <v>0.5</v>
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.7447368421052631</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5244,7 +5244,7 @@
         <v>-0.25</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9736842105263158</v>
+        <v>-0.1785714285714286</v>
       </c>
       <c r="J100" t="n">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.3925</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="G101" t="n">
         <v>-0.25</v>
@@ -5293,10 +5293,10 @@
         <v>-0.25</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9625</v>
+        <v>-0.1071428571428572</v>
       </c>
       <c r="J101" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K101" t="n">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.9974999999999999</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0.8949999999999999</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5389,10 +5389,10 @@
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J103" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K103" t="n">
         <v>1</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.845</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J105" t="n">
         <v>0.25</v>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5533,10 +5533,10 @@
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J106" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.7947368421052632</v>
+        <v>0.7857142857142858</v>
       </c>
       <c r="G107" t="n">
         <v>0.75</v>
@@ -5581,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J107" t="n">
         <v>0.25</v>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.9475</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9875</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J108" t="n">
         <v>0.75</v>
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.8875</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5677,10 +5677,10 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9375</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.5394736842105263</v>
+        <v>0.4902255639097745</v>
       </c>
       <c r="G110" t="n">
         <v>0.75</v>
@@ -5725,7 +5725,7 @@
         <v>-0.01315789473684204</v>
       </c>
       <c r="I110" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="J110" t="n">
         <v>0.75</v>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.8921052631578947</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G113" t="n">
         <v>0.75</v>
@@ -5869,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J113" t="n">
         <v>0.75</v>
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0.9949999999999999</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5917,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0.975</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.6421052631578947</v>
+        <v>0.4214285714285714</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5966,7 +5966,7 @@
         <v>-0.25</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9605263157894737</v>
+        <v>-0.1428571428571428</v>
       </c>
       <c r="J115" t="n">
         <v>0.5</v>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.8925000000000001</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6014,10 +6014,10 @@
         <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9625</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J116" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>0.75</v>
@@ -6053,7 +6053,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0.9425000000000001</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J117" t="n">
         <v>0.75</v>

--- a/dataset/score/maaruthi.xlsx
+++ b/dataset/score/maaruthi.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -580,7 +580,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J3" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8714285714285716</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J7" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.2571428571428572</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2142857142857142</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.6210714285714285</v>
+        <v>0.6710714285714285</v>
       </c>
       <c r="G14" t="n">
-        <v>0.75</v>
+        <v>0.9625</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0.3928571428571428</v>
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G16" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1337,13 +1337,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.7189285714285714</v>
+        <v>0.7689285714285715</v>
       </c>
       <c r="G19" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0.6071428571428571</v>
@@ -1385,10 +1385,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.7928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G20" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1397,7 +1397,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J20" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1541,7 +1541,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J23" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1625,19 +1625,19 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.75</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G26" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J26" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8714285714285716</v>
+        <v>0.9714285714285715</v>
       </c>
       <c r="G29" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1829,7 +1829,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="J29" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -1865,10 +1865,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G30" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1877,7 +1877,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G31" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.4161654135338346</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="G32" t="n">
-        <v>0.75</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0.1071428571428571</v>
@@ -2009,10 +2009,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G33" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2117,7 +2117,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J35" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>1</v>
@@ -2154,19 +2154,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.1571428571428572</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.2142857142857142</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J36" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.1571428571428572</v>
+        <v>0.85</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.2142857142857142</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
         <v>0.5</v>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2359,7 +2359,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J40" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -2395,19 +2395,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.3733082706766917</v>
+        <v>0.5733082706766918</v>
       </c>
       <c r="G41" t="n">
-        <v>0.75</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.02631578947368429</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0.3928571428571428</v>
       </c>
       <c r="J41" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0.5</v>
@@ -2443,10 +2443,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G42" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -2492,19 +2492,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.4071428571428571</v>
+        <v>0.7928571428571429</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.2142857142857142</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J44" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -2685,19 +2685,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J49" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2889,7 +2889,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J51" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2973,10 +2973,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8214285714285715</v>
+        <v>0.8714285714285716</v>
       </c>
       <c r="G53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -3022,16 +3022,16 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.4785714285714285</v>
+        <v>0.8714285714285716</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.1071428571428572</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J54" t="n">
         <v>0.75</v>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3082,7 +3082,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J55" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3130,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G58" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J59" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
@@ -3310,19 +3310,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.5403571428571429</v>
+        <v>0.7903571428571429</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="J60" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K60" t="n">
         <v>0.75</v>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G62" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>1</v>
@@ -3455,19 +3455,19 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.368796992481203</v>
+        <v>0.8330827067669173</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.263157894736842</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1428571428571428</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J63" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K63" t="n">
         <v>1</v>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -3551,13 +3551,13 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.6260714285714286</v>
+        <v>0.8260714285714286</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0.6428571428571429</v>
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3611,7 +3611,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J66" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -3648,19 +3648,19 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3852,7 +3852,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J71" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3900,7 +3900,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J72" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.7928571428571429</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J73" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K73" t="n">
         <v>0.75</v>
@@ -3984,13 +3984,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.4689285714285715</v>
+        <v>0.6689285714285715</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.9875</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.01249999999999996</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0.3571428571428572</v>
@@ -4032,13 +4032,13 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.4046428571428572</v>
+        <v>0.4546428571428572</v>
       </c>
       <c r="G75" t="n">
-        <v>0.75</v>
+        <v>0.9875</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0.03571428571428571</v>
@@ -4081,16 +4081,16 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.4142857142857143</v>
+        <v>0.8357142857142857</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1785714285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J76" t="n">
         <v>0.5</v>
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4141,7 +4141,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.7428571428571429</v>
+        <v>0.7928571428571429</v>
       </c>
       <c r="G78" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>1</v>
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J80" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J81" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -4369,7 +4369,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J82" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K83" t="n">
         <v>1</v>
@@ -4466,16 +4466,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1571428571428572</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.2142857142857142</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J84" t="n">
         <v>0.5</v>
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.8357142857142857</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4526,7 +4526,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J85" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
@@ -4610,10 +4610,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G87" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -4658,19 +4658,19 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.75</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.25</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -4754,10 +4754,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>1</v>
@@ -4766,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J91" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4862,7 +4862,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -4946,10 +4946,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5006,7 +5006,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5150,7 +5150,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J98" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K98" t="n">
         <v>1</v>
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.8857142857142858</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5198,7 +5198,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J99" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
@@ -5235,19 +5235,19 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.1785714285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
@@ -5284,16 +5284,16 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.8785714285714284</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1071428571428572</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J101" t="n">
         <v>0.75</v>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5440,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
         <v>1</v>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.9785714285714284</v>
+        <v>0.9285714285714285</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5536,7 +5536,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.7857142857142858</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G107" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -5584,7 +5584,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J107" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K107" t="n">
         <v>1</v>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5632,7 +5632,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J108" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.8642857142857142</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5680,7 +5680,7 @@
         <v>0.8214285714285714</v>
       </c>
       <c r="J109" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K109" t="n">
         <v>1</v>
@@ -5716,19 +5716,19 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.4902255639097745</v>
+        <v>0.6902255639097745</v>
       </c>
       <c r="G110" t="n">
-        <v>0.75</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.01315789473684204</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0.4642857142857143</v>
       </c>
       <c r="J110" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K110" t="n">
         <v>0.5</v>
@@ -5767,7 +5767,7 @@
         <v>0.9</v>
       </c>
       <c r="G111" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>1</v>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
@@ -5812,10 +5812,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G112" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -5824,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K112" t="n">
         <v>1</v>
@@ -5860,10 +5860,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0.8785714285714284</v>
+        <v>0.9785714285714284</v>
       </c>
       <c r="G113" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -5872,7 +5872,7 @@
         <v>0.8928571428571429</v>
       </c>
       <c r="J113" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>1</v>
@@ -5957,19 +5957,19 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0.4214285714285714</v>
+        <v>0.7785714285714286</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.1428571428571428</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K115" t="n">
         <v>1</v>
